--- a/Implementation/Python/experiment2RealData.xlsx
+++ b/Implementation/Python/experiment2RealData.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F731"/>
+  <dimension ref="A1:G731"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,9 @@
       <c r="F1" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -472,6 +475,9 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -492,6 +498,9 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -512,6 +521,9 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -532,6 +544,9 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -552,6 +567,9 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +590,9 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -592,6 +613,9 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -612,6 +636,9 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -632,6 +659,9 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -652,6 +682,9 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -672,6 +705,9 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -692,6 +728,9 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -712,6 +751,9 @@
       <c r="F14" t="n">
         <v>0</v>
       </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -732,6 +774,9 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -752,6 +797,7 @@
       <c r="F16" t="n">
         <v>0</v>
       </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -772,6 +818,9 @@
       <c r="F17" t="n">
         <v>0</v>
       </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -792,6 +841,9 @@
       <c r="F18" t="n">
         <v>0</v>
       </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -812,6 +864,9 @@
       <c r="F19" t="n">
         <v>0</v>
       </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -832,6 +887,9 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -852,6 +910,9 @@
       <c r="F21" t="n">
         <v>0</v>
       </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -872,6 +933,9 @@
       <c r="F22" t="n">
         <v>0</v>
       </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -892,6 +956,9 @@
       <c r="F23" t="n">
         <v>0</v>
       </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -912,6 +979,9 @@
       <c r="F24" t="n">
         <v>0</v>
       </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -932,6 +1002,7 @@
       <c r="F25" t="n">
         <v>0</v>
       </c>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -952,6 +1023,9 @@
       <c r="F26" t="n">
         <v>0</v>
       </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -972,6 +1046,9 @@
       <c r="F27" t="n">
         <v>0</v>
       </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -992,6 +1069,9 @@
       <c r="F28" t="n">
         <v>0</v>
       </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1012,6 +1092,9 @@
       <c r="F29" t="n">
         <v>0</v>
       </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1032,6 +1115,9 @@
       <c r="F30" t="n">
         <v>0</v>
       </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1052,6 +1138,9 @@
       <c r="F31" t="n">
         <v>0</v>
       </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1072,6 +1161,9 @@
       <c r="F32" t="n">
         <v>0</v>
       </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1092,6 +1184,9 @@
       <c r="F33" t="n">
         <v>0</v>
       </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1112,6 +1207,9 @@
       <c r="F34" t="n">
         <v>0</v>
       </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1132,6 +1230,9 @@
       <c r="F35" t="n">
         <v>0</v>
       </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1152,6 +1253,9 @@
       <c r="F36" t="n">
         <v>0</v>
       </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1172,6 +1276,9 @@
       <c r="F37" t="n">
         <v>0</v>
       </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1192,6 +1299,9 @@
       <c r="F38" t="n">
         <v>0</v>
       </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1212,6 +1322,9 @@
       <c r="F39" t="n">
         <v>0</v>
       </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1232,6 +1345,9 @@
       <c r="F40" t="n">
         <v>0</v>
       </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1252,6 +1368,9 @@
       <c r="F41" t="n">
         <v>0</v>
       </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1272,6 +1391,9 @@
       <c r="F42" t="n">
         <v>0</v>
       </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1292,6 +1414,7 @@
       <c r="F43" t="n">
         <v>0</v>
       </c>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1312,6 +1435,9 @@
       <c r="F44" t="n">
         <v>0</v>
       </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1332,6 +1458,9 @@
       <c r="F45" t="n">
         <v>0</v>
       </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1352,6 +1481,9 @@
       <c r="F46" t="n">
         <v>0</v>
       </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1372,6 +1504,9 @@
       <c r="F47" t="n">
         <v>0</v>
       </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1392,6 +1527,9 @@
       <c r="F48" t="n">
         <v>0</v>
       </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1412,6 +1550,9 @@
       <c r="F49" t="n">
         <v>0</v>
       </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1432,6 +1573,9 @@
       <c r="F50" t="n">
         <v>0</v>
       </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1452,6 +1596,9 @@
       <c r="F51" t="n">
         <v>0</v>
       </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1472,6 +1619,9 @@
       <c r="F52" t="n">
         <v>0</v>
       </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1492,6 +1642,9 @@
       <c r="F53" t="n">
         <v>0</v>
       </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1512,6 +1665,9 @@
       <c r="F54" t="n">
         <v>0</v>
       </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1532,6 +1688,9 @@
       <c r="F55" t="n">
         <v>0</v>
       </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1552,6 +1711,9 @@
       <c r="F56" t="n">
         <v>0</v>
       </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1572,6 +1734,9 @@
       <c r="F57" t="n">
         <v>0</v>
       </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1592,6 +1757,9 @@
       <c r="F58" t="n">
         <v>0</v>
       </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1612,6 +1780,9 @@
       <c r="F59" t="n">
         <v>0</v>
       </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1632,6 +1803,9 @@
       <c r="F60" t="n">
         <v>0</v>
       </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1652,6 +1826,9 @@
       <c r="F61" t="n">
         <v>0</v>
       </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1672,6 +1849,9 @@
       <c r="F62" t="n">
         <v>0</v>
       </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1692,6 +1872,9 @@
       <c r="F63" t="n">
         <v>0</v>
       </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1712,6 +1895,9 @@
       <c r="F64" t="n">
         <v>0</v>
       </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1732,6 +1918,9 @@
       <c r="F65" t="n">
         <v>0</v>
       </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1752,6 +1941,9 @@
       <c r="F66" t="n">
         <v>0</v>
       </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1772,6 +1964,7 @@
       <c r="F67" t="n">
         <v>0</v>
       </c>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1792,6 +1985,9 @@
       <c r="F68" t="n">
         <v>0</v>
       </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -1812,6 +2008,9 @@
       <c r="F69" t="n">
         <v>0</v>
       </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -1832,6 +2031,9 @@
       <c r="F70" t="n">
         <v>0</v>
       </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1852,6 +2054,9 @@
       <c r="F71" t="n">
         <v>0</v>
       </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1872,6 +2077,9 @@
       <c r="F72" t="n">
         <v>0</v>
       </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1892,6 +2100,9 @@
       <c r="F73" t="n">
         <v>0</v>
       </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1912,6 +2123,9 @@
       <c r="F74" t="n">
         <v>0</v>
       </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1932,6 +2146,9 @@
       <c r="F75" t="n">
         <v>0</v>
       </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1952,6 +2169,9 @@
       <c r="F76" t="n">
         <v>0</v>
       </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1972,6 +2192,9 @@
       <c r="F77" t="n">
         <v>0</v>
       </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1992,6 +2215,9 @@
       <c r="F78" t="n">
         <v>0</v>
       </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2012,6 +2238,9 @@
       <c r="F79" t="n">
         <v>0</v>
       </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2032,6 +2261,9 @@
       <c r="F80" t="n">
         <v>0</v>
       </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2052,6 +2284,9 @@
       <c r="F81" t="n">
         <v>0</v>
       </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2072,6 +2307,9 @@
       <c r="F82" t="n">
         <v>0</v>
       </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2092,6 +2330,9 @@
       <c r="F83" t="n">
         <v>0</v>
       </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2112,6 +2353,9 @@
       <c r="F84" t="n">
         <v>0</v>
       </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2132,6 +2376,7 @@
       <c r="F85" t="n">
         <v>0</v>
       </c>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2152,6 +2397,9 @@
       <c r="F86" t="n">
         <v>0</v>
       </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2172,6 +2420,9 @@
       <c r="F87" t="n">
         <v>0</v>
       </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2192,6 +2443,9 @@
       <c r="F88" t="n">
         <v>0</v>
       </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2212,6 +2466,9 @@
       <c r="F89" t="n">
         <v>0</v>
       </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2232,6 +2489,9 @@
       <c r="F90" t="n">
         <v>0</v>
       </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2252,6 +2512,9 @@
       <c r="F91" t="n">
         <v>0</v>
       </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2272,6 +2535,9 @@
       <c r="F92" t="n">
         <v>0</v>
       </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2292,6 +2558,9 @@
       <c r="F93" t="n">
         <v>0</v>
       </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2312,6 +2581,9 @@
       <c r="F94" t="n">
         <v>0</v>
       </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2332,6 +2604,7 @@
       <c r="F95" t="n">
         <v>0</v>
       </c>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2352,6 +2625,9 @@
       <c r="F96" t="n">
         <v>0</v>
       </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2372,6 +2648,9 @@
       <c r="F97" t="n">
         <v>0</v>
       </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2392,6 +2671,9 @@
       <c r="F98" t="n">
         <v>0</v>
       </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2412,6 +2694,9 @@
       <c r="F99" t="n">
         <v>0</v>
       </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2432,6 +2717,9 @@
       <c r="F100" t="n">
         <v>0</v>
       </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2452,6 +2740,9 @@
       <c r="F101" t="n">
         <v>0</v>
       </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2472,6 +2763,9 @@
       <c r="F102" t="n">
         <v>0</v>
       </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2492,6 +2786,9 @@
       <c r="F103" t="n">
         <v>0</v>
       </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2512,6 +2809,9 @@
       <c r="F104" t="n">
         <v>0</v>
       </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2532,6 +2832,9 @@
       <c r="F105" t="n">
         <v>0</v>
       </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2552,6 +2855,9 @@
       <c r="F106" t="n">
         <v>0</v>
       </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2572,6 +2878,9 @@
       <c r="F107" t="n">
         <v>0</v>
       </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2592,6 +2901,9 @@
       <c r="F108" t="n">
         <v>0</v>
       </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2612,6 +2924,7 @@
       <c r="F109" t="n">
         <v>0</v>
       </c>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2632,6 +2945,9 @@
       <c r="F110" t="n">
         <v>0</v>
       </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2652,6 +2968,9 @@
       <c r="F111" t="n">
         <v>0</v>
       </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2672,6 +2991,9 @@
       <c r="F112" t="n">
         <v>0</v>
       </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -2692,6 +3014,9 @@
       <c r="F113" t="n">
         <v>0</v>
       </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -2712,6 +3037,9 @@
       <c r="F114" t="n">
         <v>0</v>
       </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -2732,6 +3060,7 @@
       <c r="F115" t="n">
         <v>0</v>
       </c>
+      <c r="G115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -2752,6 +3081,9 @@
       <c r="F116" t="n">
         <v>0</v>
       </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -2772,6 +3104,9 @@
       <c r="F117" t="n">
         <v>0</v>
       </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -2792,6 +3127,9 @@
       <c r="F118" t="n">
         <v>0</v>
       </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -2812,6 +3150,9 @@
       <c r="F119" t="n">
         <v>0</v>
       </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -2832,6 +3173,9 @@
       <c r="F120" t="n">
         <v>0</v>
       </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -2852,6 +3196,9 @@
       <c r="F121" t="n">
         <v>0</v>
       </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -2872,6 +3219,9 @@
       <c r="F122" t="n">
         <v>0</v>
       </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -2892,6 +3242,9 @@
       <c r="F123" t="n">
         <v>0</v>
       </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -2912,6 +3265,9 @@
       <c r="F124" t="n">
         <v>0</v>
       </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -2932,6 +3288,7 @@
       <c r="F125" t="n">
         <v>0</v>
       </c>
+      <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -2952,6 +3309,9 @@
       <c r="F126" t="n">
         <v>0</v>
       </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -2972,6 +3332,9 @@
       <c r="F127" t="n">
         <v>0</v>
       </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -2992,6 +3355,9 @@
       <c r="F128" t="n">
         <v>0</v>
       </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3012,6 +3378,9 @@
       <c r="F129" t="n">
         <v>0</v>
       </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3032,6 +3401,9 @@
       <c r="F130" t="n">
         <v>0</v>
       </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3052,6 +3424,9 @@
       <c r="F131" t="n">
         <v>0</v>
       </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3072,6 +3447,9 @@
       <c r="F132" t="n">
         <v>0</v>
       </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3092,6 +3470,9 @@
       <c r="F133" t="n">
         <v>0</v>
       </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3112,6 +3493,7 @@
       <c r="F134" t="n">
         <v>0</v>
       </c>
+      <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3132,6 +3514,9 @@
       <c r="F135" t="n">
         <v>0</v>
       </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3152,6 +3537,7 @@
       <c r="F136" t="n">
         <v>0</v>
       </c>
+      <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3172,6 +3558,9 @@
       <c r="F137" t="n">
         <v>0</v>
       </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3192,6 +3581,9 @@
       <c r="F138" t="n">
         <v>0</v>
       </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3212,6 +3604,9 @@
       <c r="F139" t="n">
         <v>0</v>
       </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3232,6 +3627,9 @@
       <c r="F140" t="n">
         <v>0</v>
       </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3252,6 +3650,9 @@
       <c r="F141" t="n">
         <v>0</v>
       </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3272,6 +3673,9 @@
       <c r="F142" t="n">
         <v>0</v>
       </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3292,6 +3696,9 @@
       <c r="F143" t="n">
         <v>0</v>
       </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3312,6 +3719,9 @@
       <c r="F144" t="n">
         <v>0</v>
       </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3332,6 +3742,9 @@
       <c r="F145" t="n">
         <v>0</v>
       </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3352,6 +3765,9 @@
       <c r="F146" t="n">
         <v>0</v>
       </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3372,6 +3788,9 @@
       <c r="F147" t="n">
         <v>0</v>
       </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3392,6 +3811,9 @@
       <c r="F148" t="n">
         <v>0</v>
       </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3412,6 +3834,9 @@
       <c r="F149" t="n">
         <v>0</v>
       </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3432,6 +3857,9 @@
       <c r="F150" t="n">
         <v>0</v>
       </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3452,6 +3880,9 @@
       <c r="F151" t="n">
         <v>0</v>
       </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3472,6 +3903,9 @@
       <c r="F152" t="n">
         <v>0</v>
       </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3492,6 +3926,9 @@
       <c r="F153" t="n">
         <v>0</v>
       </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3512,6 +3949,9 @@
       <c r="F154" t="n">
         <v>0</v>
       </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3532,6 +3972,9 @@
       <c r="F155" t="n">
         <v>0</v>
       </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -3552,6 +3995,9 @@
       <c r="F156" t="n">
         <v>0</v>
       </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -3572,6 +4018,9 @@
       <c r="F157" t="n">
         <v>0</v>
       </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -3592,6 +4041,9 @@
       <c r="F158" t="n">
         <v>0</v>
       </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -3612,6 +4064,9 @@
       <c r="F159" t="n">
         <v>0</v>
       </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -3632,6 +4087,9 @@
       <c r="F160" t="n">
         <v>0</v>
       </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -3652,6 +4110,9 @@
       <c r="F161" t="n">
         <v>0</v>
       </c>
+      <c r="G161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -3672,6 +4133,9 @@
       <c r="F162" t="n">
         <v>0</v>
       </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -3692,6 +4156,9 @@
       <c r="F163" t="n">
         <v>0</v>
       </c>
+      <c r="G163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -3712,6 +4179,9 @@
       <c r="F164" t="n">
         <v>0</v>
       </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -3732,6 +4202,9 @@
       <c r="F165" t="n">
         <v>0</v>
       </c>
+      <c r="G165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -3752,6 +4225,9 @@
       <c r="F166" t="n">
         <v>0</v>
       </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -3772,6 +4248,9 @@
       <c r="F167" t="n">
         <v>0</v>
       </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -3792,6 +4271,9 @@
       <c r="F168" t="n">
         <v>0</v>
       </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -3812,6 +4294,9 @@
       <c r="F169" t="n">
         <v>0</v>
       </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -3832,6 +4317,9 @@
       <c r="F170" t="n">
         <v>0</v>
       </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -3852,6 +4340,9 @@
       <c r="F171" t="n">
         <v>0</v>
       </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -3872,6 +4363,9 @@
       <c r="F172" t="n">
         <v>0</v>
       </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -3892,6 +4386,9 @@
       <c r="F173" t="n">
         <v>0</v>
       </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -3912,6 +4409,9 @@
       <c r="F174" t="n">
         <v>0</v>
       </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -3932,6 +4432,9 @@
       <c r="F175" t="n">
         <v>0</v>
       </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -3952,6 +4455,9 @@
       <c r="F176" t="n">
         <v>0</v>
       </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -3972,6 +4478,9 @@
       <c r="F177" t="n">
         <v>0</v>
       </c>
+      <c r="G177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -3992,6 +4501,9 @@
       <c r="F178" t="n">
         <v>0</v>
       </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4012,6 +4524,9 @@
       <c r="F179" t="n">
         <v>0</v>
       </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4032,6 +4547,9 @@
       <c r="F180" t="n">
         <v>0</v>
       </c>
+      <c r="G180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4052,6 +4570,9 @@
       <c r="F181" t="n">
         <v>0</v>
       </c>
+      <c r="G181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4072,6 +4593,9 @@
       <c r="F182" t="n">
         <v>0</v>
       </c>
+      <c r="G182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4092,6 +4616,9 @@
       <c r="F183" t="n">
         <v>0</v>
       </c>
+      <c r="G183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4112,6 +4639,9 @@
       <c r="F184" t="n">
         <v>0</v>
       </c>
+      <c r="G184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4132,6 +4662,9 @@
       <c r="F185" t="n">
         <v>0</v>
       </c>
+      <c r="G185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4152,6 +4685,9 @@
       <c r="F186" t="n">
         <v>0</v>
       </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4172,6 +4708,9 @@
       <c r="F187" t="n">
         <v>0</v>
       </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4192,6 +4731,9 @@
       <c r="F188" t="n">
         <v>0</v>
       </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4212,6 +4754,9 @@
       <c r="F189" t="n">
         <v>0</v>
       </c>
+      <c r="G189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4232,6 +4777,9 @@
       <c r="F190" t="n">
         <v>0</v>
       </c>
+      <c r="G190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4252,6 +4800,9 @@
       <c r="F191" t="n">
         <v>0</v>
       </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4272,6 +4823,9 @@
       <c r="F192" t="n">
         <v>0</v>
       </c>
+      <c r="G192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4292,6 +4846,9 @@
       <c r="F193" t="n">
         <v>0</v>
       </c>
+      <c r="G193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4312,6 +4869,7 @@
       <c r="F194" t="n">
         <v>0</v>
       </c>
+      <c r="G194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4332,6 +4890,9 @@
       <c r="F195" t="n">
         <v>0</v>
       </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4352,6 +4913,9 @@
       <c r="F196" t="n">
         <v>0</v>
       </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4372,6 +4936,9 @@
       <c r="F197" t="n">
         <v>0</v>
       </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4392,6 +4959,9 @@
       <c r="F198" t="n">
         <v>0</v>
       </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4412,6 +4982,9 @@
       <c r="F199" t="n">
         <v>0</v>
       </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -4432,6 +5005,9 @@
       <c r="F200" t="n">
         <v>0</v>
       </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -4452,6 +5028,9 @@
       <c r="F201" t="n">
         <v>0</v>
       </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -4472,6 +5051,9 @@
       <c r="F202" t="n">
         <v>0</v>
       </c>
+      <c r="G202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -4492,6 +5074,9 @@
       <c r="F203" t="n">
         <v>0</v>
       </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -4512,6 +5097,9 @@
       <c r="F204" t="n">
         <v>0</v>
       </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -4532,6 +5120,9 @@
       <c r="F205" t="n">
         <v>0</v>
       </c>
+      <c r="G205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -4552,6 +5143,9 @@
       <c r="F206" t="n">
         <v>0</v>
       </c>
+      <c r="G206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -4572,6 +5166,9 @@
       <c r="F207" t="n">
         <v>0</v>
       </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -4592,6 +5189,9 @@
       <c r="F208" t="n">
         <v>0</v>
       </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -4612,6 +5212,9 @@
       <c r="F209" t="n">
         <v>0</v>
       </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -4632,6 +5235,9 @@
       <c r="F210" t="n">
         <v>0</v>
       </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -4652,6 +5258,9 @@
       <c r="F211" t="n">
         <v>0</v>
       </c>
+      <c r="G211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -4672,6 +5281,9 @@
       <c r="F212" t="n">
         <v>0</v>
       </c>
+      <c r="G212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -4692,6 +5304,9 @@
       <c r="F213" t="n">
         <v>0</v>
       </c>
+      <c r="G213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -4712,6 +5327,7 @@
       <c r="F214" t="n">
         <v>0</v>
       </c>
+      <c r="G214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -4732,6 +5348,9 @@
       <c r="F215" t="n">
         <v>0</v>
       </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -4752,6 +5371,9 @@
       <c r="F216" t="n">
         <v>0</v>
       </c>
+      <c r="G216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -4772,6 +5394,9 @@
       <c r="F217" t="n">
         <v>0</v>
       </c>
+      <c r="G217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -4792,6 +5417,9 @@
       <c r="F218" t="n">
         <v>0</v>
       </c>
+      <c r="G218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -4812,6 +5440,9 @@
       <c r="F219" t="n">
         <v>0</v>
       </c>
+      <c r="G219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -4832,6 +5463,9 @@
       <c r="F220" t="n">
         <v>0</v>
       </c>
+      <c r="G220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -4852,6 +5486,9 @@
       <c r="F221" t="n">
         <v>0</v>
       </c>
+      <c r="G221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -4872,6 +5509,9 @@
       <c r="F222" t="n">
         <v>0</v>
       </c>
+      <c r="G222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -4892,6 +5532,9 @@
       <c r="F223" t="n">
         <v>0</v>
       </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -4912,6 +5555,9 @@
       <c r="F224" t="n">
         <v>0</v>
       </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -4932,6 +5578,9 @@
       <c r="F225" t="n">
         <v>0</v>
       </c>
+      <c r="G225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -4952,6 +5601,9 @@
       <c r="F226" t="n">
         <v>0</v>
       </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -4972,6 +5624,9 @@
       <c r="F227" t="n">
         <v>0</v>
       </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -4992,6 +5647,9 @@
       <c r="F228" t="n">
         <v>0</v>
       </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5012,6 +5670,9 @@
       <c r="F229" t="n">
         <v>0</v>
       </c>
+      <c r="G229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5032,6 +5693,9 @@
       <c r="F230" t="n">
         <v>0</v>
       </c>
+      <c r="G230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5052,6 +5716,9 @@
       <c r="F231" t="n">
         <v>0</v>
       </c>
+      <c r="G231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5072,6 +5739,9 @@
       <c r="F232" t="n">
         <v>0</v>
       </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5092,6 +5762,9 @@
       <c r="F233" t="n">
         <v>0</v>
       </c>
+      <c r="G233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5112,6 +5785,9 @@
       <c r="F234" t="n">
         <v>0</v>
       </c>
+      <c r="G234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5132,6 +5808,9 @@
       <c r="F235" t="n">
         <v>0</v>
       </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5152,6 +5831,9 @@
       <c r="F236" t="n">
         <v>0</v>
       </c>
+      <c r="G236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5172,6 +5854,9 @@
       <c r="F237" t="n">
         <v>0</v>
       </c>
+      <c r="G237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5192,6 +5877,9 @@
       <c r="F238" t="n">
         <v>0</v>
       </c>
+      <c r="G238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5212,6 +5900,9 @@
       <c r="F239" t="n">
         <v>0</v>
       </c>
+      <c r="G239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5232,6 +5923,9 @@
       <c r="F240" t="n">
         <v>0</v>
       </c>
+      <c r="G240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5252,6 +5946,9 @@
       <c r="F241" t="n">
         <v>0</v>
       </c>
+      <c r="G241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5272,6 +5969,9 @@
       <c r="F242" t="n">
         <v>0</v>
       </c>
+      <c r="G242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -5292,6 +5992,9 @@
       <c r="F243" t="n">
         <v>0</v>
       </c>
+      <c r="G243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -5312,6 +6015,9 @@
       <c r="F244" t="n">
         <v>0</v>
       </c>
+      <c r="G244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -5332,6 +6038,9 @@
       <c r="F245" t="n">
         <v>0</v>
       </c>
+      <c r="G245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -5352,6 +6061,9 @@
       <c r="F246" t="n">
         <v>0</v>
       </c>
+      <c r="G246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -5372,6 +6084,9 @@
       <c r="F247" t="n">
         <v>0</v>
       </c>
+      <c r="G247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -5392,6 +6107,9 @@
       <c r="F248" t="n">
         <v>0</v>
       </c>
+      <c r="G248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -5412,6 +6130,7 @@
       <c r="F249" t="n">
         <v>0</v>
       </c>
+      <c r="G249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -5432,6 +6151,9 @@
       <c r="F250" t="n">
         <v>0</v>
       </c>
+      <c r="G250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -5452,6 +6174,9 @@
       <c r="F251" t="n">
         <v>0</v>
       </c>
+      <c r="G251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -5472,6 +6197,9 @@
       <c r="F252" t="n">
         <v>0</v>
       </c>
+      <c r="G252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -5492,6 +6220,9 @@
       <c r="F253" t="n">
         <v>0</v>
       </c>
+      <c r="G253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -5512,6 +6243,9 @@
       <c r="F254" t="n">
         <v>0</v>
       </c>
+      <c r="G254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -5532,6 +6266,9 @@
       <c r="F255" t="n">
         <v>0</v>
       </c>
+      <c r="G255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -5552,6 +6289,9 @@
       <c r="F256" t="n">
         <v>0</v>
       </c>
+      <c r="G256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -5572,6 +6312,9 @@
       <c r="F257" t="n">
         <v>0</v>
       </c>
+      <c r="G257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -5592,6 +6335,9 @@
       <c r="F258" t="n">
         <v>0</v>
       </c>
+      <c r="G258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -5612,6 +6358,9 @@
       <c r="F259" t="n">
         <v>0</v>
       </c>
+      <c r="G259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -5632,6 +6381,9 @@
       <c r="F260" t="n">
         <v>0</v>
       </c>
+      <c r="G260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -5652,6 +6404,9 @@
       <c r="F261" t="n">
         <v>0</v>
       </c>
+      <c r="G261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -5672,6 +6427,9 @@
       <c r="F262" t="n">
         <v>0</v>
       </c>
+      <c r="G262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
@@ -5692,6 +6450,9 @@
       <c r="F263" t="n">
         <v>0</v>
       </c>
+      <c r="G263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
@@ -5712,6 +6473,9 @@
       <c r="F264" t="n">
         <v>0</v>
       </c>
+      <c r="G264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
@@ -5732,6 +6496,9 @@
       <c r="F265" t="n">
         <v>0</v>
       </c>
+      <c r="G265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
@@ -5752,6 +6519,9 @@
       <c r="F266" t="n">
         <v>0</v>
       </c>
+      <c r="G266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
@@ -5772,6 +6542,9 @@
       <c r="F267" t="n">
         <v>0</v>
       </c>
+      <c r="G267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
@@ -5792,6 +6565,9 @@
       <c r="F268" t="n">
         <v>0</v>
       </c>
+      <c r="G268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
@@ -5812,6 +6588,9 @@
       <c r="F269" t="n">
         <v>0</v>
       </c>
+      <c r="G269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
@@ -5832,6 +6611,9 @@
       <c r="F270" t="n">
         <v>0</v>
       </c>
+      <c r="G270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
@@ -5852,6 +6634,9 @@
       <c r="F271" t="n">
         <v>0</v>
       </c>
+      <c r="G271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
@@ -5872,6 +6657,9 @@
       <c r="F272" t="n">
         <v>0</v>
       </c>
+      <c r="G272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
@@ -5892,6 +6680,9 @@
       <c r="F273" t="n">
         <v>0</v>
       </c>
+      <c r="G273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -5912,6 +6703,9 @@
       <c r="F274" t="n">
         <v>0</v>
       </c>
+      <c r="G274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -5932,6 +6726,9 @@
       <c r="F275" t="n">
         <v>0</v>
       </c>
+      <c r="G275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -5952,6 +6749,9 @@
       <c r="F276" t="n">
         <v>0</v>
       </c>
+      <c r="G276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
@@ -5972,6 +6772,9 @@
       <c r="F277" t="n">
         <v>0</v>
       </c>
+      <c r="G277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
@@ -5992,6 +6795,9 @@
       <c r="F278" t="n">
         <v>0</v>
       </c>
+      <c r="G278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
@@ -6012,6 +6818,9 @@
       <c r="F279" t="n">
         <v>0</v>
       </c>
+      <c r="G279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -6032,6 +6841,9 @@
       <c r="F280" t="n">
         <v>0</v>
       </c>
+      <c r="G280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
@@ -6052,6 +6864,9 @@
       <c r="F281" t="n">
         <v>0</v>
       </c>
+      <c r="G281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
@@ -6072,6 +6887,9 @@
       <c r="F282" t="n">
         <v>0</v>
       </c>
+      <c r="G282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
@@ -6092,6 +6910,9 @@
       <c r="F283" t="n">
         <v>0</v>
       </c>
+      <c r="G283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
@@ -6112,6 +6933,9 @@
       <c r="F284" t="n">
         <v>0</v>
       </c>
+      <c r="G284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
@@ -6132,6 +6956,9 @@
       <c r="F285" t="n">
         <v>0</v>
       </c>
+      <c r="G285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
@@ -6152,6 +6979,7 @@
       <c r="F286" t="n">
         <v>0</v>
       </c>
+      <c r="G286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" t="n">
@@ -6172,6 +7000,9 @@
       <c r="F287" t="n">
         <v>0</v>
       </c>
+      <c r="G287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
@@ -6192,6 +7023,9 @@
       <c r="F288" t="n">
         <v>0</v>
       </c>
+      <c r="G288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -6212,6 +7046,9 @@
       <c r="F289" t="n">
         <v>0</v>
       </c>
+      <c r="G289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
@@ -6232,6 +7069,9 @@
       <c r="F290" t="n">
         <v>0</v>
       </c>
+      <c r="G290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
@@ -6252,6 +7092,9 @@
       <c r="F291" t="n">
         <v>0</v>
       </c>
+      <c r="G291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
@@ -6272,6 +7115,9 @@
       <c r="F292" t="n">
         <v>0</v>
       </c>
+      <c r="G292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
@@ -6292,6 +7138,9 @@
       <c r="F293" t="n">
         <v>0</v>
       </c>
+      <c r="G293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
@@ -6312,6 +7161,9 @@
       <c r="F294" t="n">
         <v>0</v>
       </c>
+      <c r="G294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
@@ -6332,6 +7184,9 @@
       <c r="F295" t="n">
         <v>0</v>
       </c>
+      <c r="G295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
@@ -6352,6 +7207,9 @@
       <c r="F296" t="n">
         <v>0</v>
       </c>
+      <c r="G296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
@@ -6372,6 +7230,9 @@
       <c r="F297" t="n">
         <v>0</v>
       </c>
+      <c r="G297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
@@ -6392,6 +7253,9 @@
       <c r="F298" t="n">
         <v>0</v>
       </c>
+      <c r="G298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
@@ -6412,6 +7276,9 @@
       <c r="F299" t="n">
         <v>0</v>
       </c>
+      <c r="G299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
@@ -6432,6 +7299,9 @@
       <c r="F300" t="n">
         <v>0</v>
       </c>
+      <c r="G300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -6452,6 +7322,9 @@
       <c r="F301" t="n">
         <v>0</v>
       </c>
+      <c r="G301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
@@ -6472,6 +7345,9 @@
       <c r="F302" t="n">
         <v>0</v>
       </c>
+      <c r="G302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
@@ -6492,6 +7368,9 @@
       <c r="F303" t="n">
         <v>0</v>
       </c>
+      <c r="G303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -6512,6 +7391,9 @@
       <c r="F304" t="n">
         <v>0</v>
       </c>
+      <c r="G304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
@@ -6532,6 +7414,9 @@
       <c r="F305" t="n">
         <v>0</v>
       </c>
+      <c r="G305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
@@ -6552,6 +7437,9 @@
       <c r="F306" t="n">
         <v>0</v>
       </c>
+      <c r="G306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
@@ -6572,6 +7460,9 @@
       <c r="F307" t="n">
         <v>0</v>
       </c>
+      <c r="G307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
@@ -6592,6 +7483,9 @@
       <c r="F308" t="n">
         <v>0</v>
       </c>
+      <c r="G308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
@@ -6612,6 +7506,9 @@
       <c r="F309" t="n">
         <v>0</v>
       </c>
+      <c r="G309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -6632,6 +7529,9 @@
       <c r="F310" t="n">
         <v>0</v>
       </c>
+      <c r="G310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
@@ -6652,6 +7552,9 @@
       <c r="F311" t="n">
         <v>0</v>
       </c>
+      <c r="G311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
@@ -6672,6 +7575,9 @@
       <c r="F312" t="n">
         <v>0</v>
       </c>
+      <c r="G312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
@@ -6692,6 +7598,9 @@
       <c r="F313" t="n">
         <v>0</v>
       </c>
+      <c r="G313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -6712,6 +7621,9 @@
       <c r="F314" t="n">
         <v>0</v>
       </c>
+      <c r="G314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -6732,6 +7644,9 @@
       <c r="F315" t="n">
         <v>0</v>
       </c>
+      <c r="G315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -6752,6 +7667,9 @@
       <c r="F316" t="n">
         <v>0</v>
       </c>
+      <c r="G316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -6772,6 +7690,9 @@
       <c r="F317" t="n">
         <v>0</v>
       </c>
+      <c r="G317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -6792,6 +7713,9 @@
       <c r="F318" t="n">
         <v>0</v>
       </c>
+      <c r="G318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -6812,6 +7736,9 @@
       <c r="F319" t="n">
         <v>0</v>
       </c>
+      <c r="G319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -6832,6 +7759,9 @@
       <c r="F320" t="n">
         <v>0</v>
       </c>
+      <c r="G320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -6852,6 +7782,7 @@
       <c r="F321" t="n">
         <v>0</v>
       </c>
+      <c r="G321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -6872,6 +7803,9 @@
       <c r="F322" t="n">
         <v>0</v>
       </c>
+      <c r="G322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -6892,6 +7826,9 @@
       <c r="F323" t="n">
         <v>0</v>
       </c>
+      <c r="G323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -6912,6 +7849,9 @@
       <c r="F324" t="n">
         <v>0</v>
       </c>
+      <c r="G324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -6932,6 +7872,9 @@
       <c r="F325" t="n">
         <v>0</v>
       </c>
+      <c r="G325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -6952,6 +7895,9 @@
       <c r="F326" t="n">
         <v>0</v>
       </c>
+      <c r="G326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -6972,6 +7918,9 @@
       <c r="F327" t="n">
         <v>0</v>
       </c>
+      <c r="G327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -6992,6 +7941,9 @@
       <c r="F328" t="n">
         <v>0</v>
       </c>
+      <c r="G328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -7012,6 +7964,9 @@
       <c r="F329" t="n">
         <v>0</v>
       </c>
+      <c r="G329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -7032,6 +7987,9 @@
       <c r="F330" t="n">
         <v>0</v>
       </c>
+      <c r="G330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -7052,6 +8010,9 @@
       <c r="F331" t="n">
         <v>0</v>
       </c>
+      <c r="G331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -7072,6 +8033,9 @@
       <c r="F332" t="n">
         <v>0</v>
       </c>
+      <c r="G332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -7092,6 +8056,9 @@
       <c r="F333" t="n">
         <v>0</v>
       </c>
+      <c r="G333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -7112,6 +8079,9 @@
       <c r="F334" t="n">
         <v>0</v>
       </c>
+      <c r="G334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -7132,6 +8102,9 @@
       <c r="F335" t="n">
         <v>0</v>
       </c>
+      <c r="G335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -7152,6 +8125,9 @@
       <c r="F336" t="n">
         <v>0</v>
       </c>
+      <c r="G336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -7172,6 +8148,9 @@
       <c r="F337" t="n">
         <v>0</v>
       </c>
+      <c r="G337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -7192,6 +8171,9 @@
       <c r="F338" t="n">
         <v>0</v>
       </c>
+      <c r="G338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -7212,6 +8194,9 @@
       <c r="F339" t="n">
         <v>0</v>
       </c>
+      <c r="G339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -7232,6 +8217,9 @@
       <c r="F340" t="n">
         <v>0</v>
       </c>
+      <c r="G340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -7252,6 +8240,9 @@
       <c r="F341" t="n">
         <v>0</v>
       </c>
+      <c r="G341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -7272,6 +8263,9 @@
       <c r="F342" t="n">
         <v>0</v>
       </c>
+      <c r="G342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -7292,6 +8286,9 @@
       <c r="F343" t="n">
         <v>0</v>
       </c>
+      <c r="G343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -7312,6 +8309,9 @@
       <c r="F344" t="n">
         <v>0</v>
       </c>
+      <c r="G344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -7332,6 +8332,9 @@
       <c r="F345" t="n">
         <v>0</v>
       </c>
+      <c r="G345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
@@ -7352,6 +8355,9 @@
       <c r="F346" t="n">
         <v>0</v>
       </c>
+      <c r="G346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
@@ -7372,6 +8378,9 @@
       <c r="F347" t="n">
         <v>0</v>
       </c>
+      <c r="G347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
@@ -7392,6 +8401,7 @@
       <c r="F348" t="n">
         <v>0</v>
       </c>
+      <c r="G348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -7412,6 +8422,9 @@
       <c r="F349" t="n">
         <v>0</v>
       </c>
+      <c r="G349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
@@ -7432,6 +8445,9 @@
       <c r="F350" t="n">
         <v>0</v>
       </c>
+      <c r="G350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
@@ -7452,6 +8468,9 @@
       <c r="F351" t="n">
         <v>0</v>
       </c>
+      <c r="G351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
@@ -7472,6 +8491,7 @@
       <c r="F352" t="n">
         <v>0</v>
       </c>
+      <c r="G352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" t="n">
@@ -7492,6 +8512,9 @@
       <c r="F353" t="n">
         <v>0</v>
       </c>
+      <c r="G353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
@@ -7512,6 +8535,9 @@
       <c r="F354" t="n">
         <v>0</v>
       </c>
+      <c r="G354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -7532,6 +8558,9 @@
       <c r="F355" t="n">
         <v>0</v>
       </c>
+      <c r="G355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -7552,6 +8581,9 @@
       <c r="F356" t="n">
         <v>0</v>
       </c>
+      <c r="G356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -7572,6 +8604,9 @@
       <c r="F357" t="n">
         <v>0</v>
       </c>
+      <c r="G357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -7592,6 +8627,9 @@
       <c r="F358" t="n">
         <v>0</v>
       </c>
+      <c r="G358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -7612,6 +8650,7 @@
       <c r="F359" t="n">
         <v>0</v>
       </c>
+      <c r="G359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -7632,6 +8671,9 @@
       <c r="F360" t="n">
         <v>0</v>
       </c>
+      <c r="G360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -7652,6 +8694,9 @@
       <c r="F361" t="n">
         <v>0</v>
       </c>
+      <c r="G361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -7672,6 +8717,9 @@
       <c r="F362" t="n">
         <v>0</v>
       </c>
+      <c r="G362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -7692,6 +8740,9 @@
       <c r="F363" t="n">
         <v>0</v>
       </c>
+      <c r="G363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -7712,6 +8763,7 @@
       <c r="F364" t="n">
         <v>0</v>
       </c>
+      <c r="G364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -7732,6 +8784,9 @@
       <c r="F365" t="n">
         <v>0</v>
       </c>
+      <c r="G365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -7752,6 +8807,9 @@
       <c r="F366" t="n">
         <v>0</v>
       </c>
+      <c r="G366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -7772,6 +8830,9 @@
       <c r="F367" t="n">
         <v>0</v>
       </c>
+      <c r="G367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -7792,6 +8853,9 @@
       <c r="F368" t="n">
         <v>0</v>
       </c>
+      <c r="G368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -7812,6 +8876,9 @@
       <c r="F369" t="n">
         <v>0</v>
       </c>
+      <c r="G369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -7832,6 +8899,9 @@
       <c r="F370" t="n">
         <v>0</v>
       </c>
+      <c r="G370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -7852,6 +8922,9 @@
       <c r="F371" t="n">
         <v>0</v>
       </c>
+      <c r="G371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -7872,6 +8945,9 @@
       <c r="F372" t="n">
         <v>0</v>
       </c>
+      <c r="G372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -7892,6 +8968,9 @@
       <c r="F373" t="n">
         <v>0</v>
       </c>
+      <c r="G373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -7912,6 +8991,9 @@
       <c r="F374" t="n">
         <v>0</v>
       </c>
+      <c r="G374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -7932,6 +9014,9 @@
       <c r="F375" t="n">
         <v>0</v>
       </c>
+      <c r="G375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -7952,6 +9037,9 @@
       <c r="F376" t="n">
         <v>0</v>
       </c>
+      <c r="G376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -7972,6 +9060,9 @@
       <c r="F377" t="n">
         <v>0</v>
       </c>
+      <c r="G377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -7992,6 +9083,9 @@
       <c r="F378" t="n">
         <v>0</v>
       </c>
+      <c r="G378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -8012,6 +9106,9 @@
       <c r="F379" t="n">
         <v>0</v>
       </c>
+      <c r="G379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
@@ -8032,6 +9129,9 @@
       <c r="F380" t="n">
         <v>0</v>
       </c>
+      <c r="G380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
@@ -8052,6 +9152,9 @@
       <c r="F381" t="n">
         <v>0</v>
       </c>
+      <c r="G381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
@@ -8072,6 +9175,9 @@
       <c r="F382" t="n">
         <v>0</v>
       </c>
+      <c r="G382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
@@ -8092,6 +9198,9 @@
       <c r="F383" t="n">
         <v>0</v>
       </c>
+      <c r="G383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
@@ -8112,6 +9221,9 @@
       <c r="F384" t="n">
         <v>0</v>
       </c>
+      <c r="G384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
@@ -8132,6 +9244,9 @@
       <c r="F385" t="n">
         <v>0</v>
       </c>
+      <c r="G385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
@@ -8152,6 +9267,9 @@
       <c r="F386" t="n">
         <v>0</v>
       </c>
+      <c r="G386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
@@ -8172,6 +9290,9 @@
       <c r="F387" t="n">
         <v>0</v>
       </c>
+      <c r="G387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
@@ -8192,6 +9313,9 @@
       <c r="F388" t="n">
         <v>0</v>
       </c>
+      <c r="G388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
@@ -8212,6 +9336,9 @@
       <c r="F389" t="n">
         <v>0</v>
       </c>
+      <c r="G389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
@@ -8232,6 +9359,9 @@
       <c r="F390" t="n">
         <v>0</v>
       </c>
+      <c r="G390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
@@ -8252,6 +9382,9 @@
       <c r="F391" t="n">
         <v>0</v>
       </c>
+      <c r="G391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
@@ -8272,6 +9405,9 @@
       <c r="F392" t="n">
         <v>0</v>
       </c>
+      <c r="G392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
@@ -8292,6 +9428,9 @@
       <c r="F393" t="n">
         <v>0</v>
       </c>
+      <c r="G393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
@@ -8312,6 +9451,9 @@
       <c r="F394" t="n">
         <v>0</v>
       </c>
+      <c r="G394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
@@ -8332,6 +9474,9 @@
       <c r="F395" t="n">
         <v>0</v>
       </c>
+      <c r="G395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -8352,6 +9497,9 @@
       <c r="F396" t="n">
         <v>0</v>
       </c>
+      <c r="G396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
@@ -8372,6 +9520,9 @@
       <c r="F397" t="n">
         <v>0</v>
       </c>
+      <c r="G397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
@@ -8392,6 +9543,9 @@
       <c r="F398" t="n">
         <v>0</v>
       </c>
+      <c r="G398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
@@ -8412,6 +9566,9 @@
       <c r="F399" t="n">
         <v>0</v>
       </c>
+      <c r="G399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
@@ -8432,6 +9589,9 @@
       <c r="F400" t="n">
         <v>0</v>
       </c>
+      <c r="G400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
@@ -8452,6 +9612,9 @@
       <c r="F401" t="n">
         <v>0</v>
       </c>
+      <c r="G401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
@@ -8472,6 +9635,9 @@
       <c r="F402" t="n">
         <v>0</v>
       </c>
+      <c r="G402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
@@ -8492,6 +9658,9 @@
       <c r="F403" t="n">
         <v>0</v>
       </c>
+      <c r="G403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
@@ -8512,6 +9681,9 @@
       <c r="F404" t="n">
         <v>0</v>
       </c>
+      <c r="G404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
@@ -8532,6 +9704,9 @@
       <c r="F405" t="n">
         <v>0</v>
       </c>
+      <c r="G405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
@@ -8552,6 +9727,9 @@
       <c r="F406" t="n">
         <v>0</v>
       </c>
+      <c r="G406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
@@ -8572,6 +9750,9 @@
       <c r="F407" t="n">
         <v>0</v>
       </c>
+      <c r="G407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
@@ -8592,6 +9773,9 @@
       <c r="F408" t="n">
         <v>0</v>
       </c>
+      <c r="G408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
@@ -8612,6 +9796,9 @@
       <c r="F409" t="n">
         <v>0</v>
       </c>
+      <c r="G409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -8632,6 +9819,9 @@
       <c r="F410" t="n">
         <v>0</v>
       </c>
+      <c r="G410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -8652,6 +9842,9 @@
       <c r="F411" t="n">
         <v>0</v>
       </c>
+      <c r="G411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
@@ -8672,6 +9865,9 @@
       <c r="F412" t="n">
         <v>0</v>
       </c>
+      <c r="G412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
@@ -8692,6 +9888,9 @@
       <c r="F413" t="n">
         <v>0</v>
       </c>
+      <c r="G413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
@@ -8712,6 +9911,9 @@
       <c r="F414" t="n">
         <v>0</v>
       </c>
+      <c r="G414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
@@ -8732,6 +9934,9 @@
       <c r="F415" t="n">
         <v>0</v>
       </c>
+      <c r="G415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -8752,6 +9957,9 @@
       <c r="F416" t="n">
         <v>0</v>
       </c>
+      <c r="G416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -8772,6 +9980,9 @@
       <c r="F417" t="n">
         <v>0</v>
       </c>
+      <c r="G417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -8792,6 +10003,9 @@
       <c r="F418" t="n">
         <v>0</v>
       </c>
+      <c r="G418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
@@ -8812,6 +10026,9 @@
       <c r="F419" t="n">
         <v>0</v>
       </c>
+      <c r="G419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
@@ -8832,6 +10049,9 @@
       <c r="F420" t="n">
         <v>0</v>
       </c>
+      <c r="G420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
@@ -8852,6 +10072,9 @@
       <c r="F421" t="n">
         <v>0</v>
       </c>
+      <c r="G421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
@@ -8872,6 +10095,9 @@
       <c r="F422" t="n">
         <v>0</v>
       </c>
+      <c r="G422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
@@ -8892,6 +10118,7 @@
       <c r="F423" t="n">
         <v>0</v>
       </c>
+      <c r="G423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="n">
@@ -8912,6 +10139,9 @@
       <c r="F424" t="n">
         <v>0</v>
       </c>
+      <c r="G424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
@@ -8932,6 +10162,9 @@
       <c r="F425" t="n">
         <v>0</v>
       </c>
+      <c r="G425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
@@ -8952,6 +10185,9 @@
       <c r="F426" t="n">
         <v>0</v>
       </c>
+      <c r="G426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
@@ -8972,6 +10208,9 @@
       <c r="F427" t="n">
         <v>0</v>
       </c>
+      <c r="G427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
@@ -8992,6 +10231,9 @@
       <c r="F428" t="n">
         <v>0</v>
       </c>
+      <c r="G428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
@@ -9012,6 +10254,9 @@
       <c r="F429" t="n">
         <v>0</v>
       </c>
+      <c r="G429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
@@ -9032,6 +10277,9 @@
       <c r="F430" t="n">
         <v>0</v>
       </c>
+      <c r="G430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
@@ -9052,6 +10300,9 @@
       <c r="F431" t="n">
         <v>0</v>
       </c>
+      <c r="G431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
@@ -9072,6 +10323,9 @@
       <c r="F432" t="n">
         <v>0</v>
       </c>
+      <c r="G432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
@@ -9092,6 +10346,9 @@
       <c r="F433" t="n">
         <v>0</v>
       </c>
+      <c r="G433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
@@ -9112,6 +10369,9 @@
       <c r="F434" t="n">
         <v>0</v>
       </c>
+      <c r="G434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
@@ -9132,6 +10392,9 @@
       <c r="F435" t="n">
         <v>0</v>
       </c>
+      <c r="G435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
@@ -9152,6 +10415,9 @@
       <c r="F436" t="n">
         <v>0</v>
       </c>
+      <c r="G436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
@@ -9172,6 +10438,9 @@
       <c r="F437" t="n">
         <v>0</v>
       </c>
+      <c r="G437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
@@ -9192,6 +10461,9 @@
       <c r="F438" t="n">
         <v>0</v>
       </c>
+      <c r="G438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -9212,6 +10484,9 @@
       <c r="F439" t="n">
         <v>0</v>
       </c>
+      <c r="G439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
@@ -9232,6 +10507,9 @@
       <c r="F440" t="n">
         <v>0</v>
       </c>
+      <c r="G440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -9252,6 +10530,9 @@
       <c r="F441" t="n">
         <v>0</v>
       </c>
+      <c r="G441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -9272,6 +10553,7 @@
       <c r="F442" t="n">
         <v>0</v>
       </c>
+      <c r="G442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -9292,6 +10574,9 @@
       <c r="F443" t="n">
         <v>0</v>
       </c>
+      <c r="G443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
@@ -9312,6 +10597,9 @@
       <c r="F444" t="n">
         <v>0</v>
       </c>
+      <c r="G444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -9332,6 +10620,9 @@
       <c r="F445" t="n">
         <v>0</v>
       </c>
+      <c r="G445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
@@ -9352,6 +10643,9 @@
       <c r="F446" t="n">
         <v>0</v>
       </c>
+      <c r="G446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -9372,6 +10666,9 @@
       <c r="F447" t="n">
         <v>0</v>
       </c>
+      <c r="G447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -9392,6 +10689,7 @@
       <c r="F448" t="n">
         <v>0</v>
       </c>
+      <c r="G448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -9412,6 +10710,9 @@
       <c r="F449" t="n">
         <v>0</v>
       </c>
+      <c r="G449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -9432,6 +10733,9 @@
       <c r="F450" t="n">
         <v>0</v>
       </c>
+      <c r="G450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -9452,6 +10756,9 @@
       <c r="F451" t="n">
         <v>0</v>
       </c>
+      <c r="G451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
@@ -9472,6 +10779,9 @@
       <c r="F452" t="n">
         <v>0</v>
       </c>
+      <c r="G452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
@@ -9492,6 +10802,7 @@
       <c r="F453" t="n">
         <v>0</v>
       </c>
+      <c r="G453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" t="n">
@@ -9512,6 +10823,9 @@
       <c r="F454" t="n">
         <v>0</v>
       </c>
+      <c r="G454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
@@ -9532,6 +10846,9 @@
       <c r="F455" t="n">
         <v>0</v>
       </c>
+      <c r="G455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
@@ -9552,6 +10869,9 @@
       <c r="F456" t="n">
         <v>0</v>
       </c>
+      <c r="G456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
@@ -9572,6 +10892,9 @@
       <c r="F457" t="n">
         <v>0</v>
       </c>
+      <c r="G457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -9592,6 +10915,9 @@
       <c r="F458" t="n">
         <v>0</v>
       </c>
+      <c r="G458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -9612,6 +10938,9 @@
       <c r="F459" t="n">
         <v>0</v>
       </c>
+      <c r="G459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
@@ -9632,6 +10961,9 @@
       <c r="F460" t="n">
         <v>0</v>
       </c>
+      <c r="G460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
@@ -9652,6 +10984,9 @@
       <c r="F461" t="n">
         <v>0</v>
       </c>
+      <c r="G461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
@@ -9672,6 +11007,9 @@
       <c r="F462" t="n">
         <v>0</v>
       </c>
+      <c r="G462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
@@ -9692,6 +11030,9 @@
       <c r="F463" t="n">
         <v>0</v>
       </c>
+      <c r="G463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
@@ -9712,6 +11053,9 @@
       <c r="F464" t="n">
         <v>0</v>
       </c>
+      <c r="G464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
@@ -9732,6 +11076,9 @@
       <c r="F465" t="n">
         <v>0</v>
       </c>
+      <c r="G465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
@@ -9752,6 +11099,9 @@
       <c r="F466" t="n">
         <v>0</v>
       </c>
+      <c r="G466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
@@ -9772,6 +11122,9 @@
       <c r="F467" t="n">
         <v>0</v>
       </c>
+      <c r="G467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -9792,6 +11145,9 @@
       <c r="F468" t="n">
         <v>0</v>
       </c>
+      <c r="G468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -9812,6 +11168,9 @@
       <c r="F469" t="n">
         <v>0</v>
       </c>
+      <c r="G469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -9832,6 +11191,9 @@
       <c r="F470" t="n">
         <v>0</v>
       </c>
+      <c r="G470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -9852,6 +11214,9 @@
       <c r="F471" t="n">
         <v>0</v>
       </c>
+      <c r="G471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
@@ -9872,6 +11237,9 @@
       <c r="F472" t="n">
         <v>0</v>
       </c>
+      <c r="G472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
@@ -9892,6 +11260,9 @@
       <c r="F473" t="n">
         <v>0</v>
       </c>
+      <c r="G473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
@@ -9912,6 +11283,9 @@
       <c r="F474" t="n">
         <v>0</v>
       </c>
+      <c r="G474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
@@ -9932,6 +11306,9 @@
       <c r="F475" t="n">
         <v>0</v>
       </c>
+      <c r="G475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
@@ -9952,6 +11329,9 @@
       <c r="F476" t="n">
         <v>0</v>
       </c>
+      <c r="G476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
@@ -9972,6 +11352,9 @@
       <c r="F477" t="n">
         <v>0</v>
       </c>
+      <c r="G477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
@@ -9992,6 +11375,9 @@
       <c r="F478" t="n">
         <v>0</v>
       </c>
+      <c r="G478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
@@ -10012,6 +11398,9 @@
       <c r="F479" t="n">
         <v>0</v>
       </c>
+      <c r="G479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
@@ -10032,6 +11421,9 @@
       <c r="F480" t="n">
         <v>0</v>
       </c>
+      <c r="G480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
@@ -10052,6 +11444,7 @@
       <c r="F481" t="n">
         <v>0</v>
       </c>
+      <c r="G481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" t="n">
@@ -10072,6 +11465,9 @@
       <c r="F482" t="n">
         <v>0</v>
       </c>
+      <c r="G482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
@@ -10092,6 +11488,9 @@
       <c r="F483" t="n">
         <v>0</v>
       </c>
+      <c r="G483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
@@ -10112,6 +11511,7 @@
       <c r="F484" t="n">
         <v>0</v>
       </c>
+      <c r="G484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" t="n">
@@ -10132,6 +11532,9 @@
       <c r="F485" t="n">
         <v>0</v>
       </c>
+      <c r="G485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
@@ -10152,6 +11555,7 @@
       <c r="F486" t="n">
         <v>0</v>
       </c>
+      <c r="G486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -10172,6 +11576,9 @@
       <c r="F487" t="n">
         <v>0</v>
       </c>
+      <c r="G487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -10192,6 +11599,9 @@
       <c r="F488" t="n">
         <v>0</v>
       </c>
+      <c r="G488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
@@ -10212,6 +11622,9 @@
       <c r="F489" t="n">
         <v>0</v>
       </c>
+      <c r="G489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
@@ -10232,6 +11645,9 @@
       <c r="F490" t="n">
         <v>0</v>
       </c>
+      <c r="G490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
@@ -10252,6 +11668,9 @@
       <c r="F491" t="n">
         <v>0</v>
       </c>
+      <c r="G491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
@@ -10272,6 +11691,9 @@
       <c r="F492" t="n">
         <v>0</v>
       </c>
+      <c r="G492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
@@ -10292,6 +11714,9 @@
       <c r="F493" t="n">
         <v>0</v>
       </c>
+      <c r="G493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
@@ -10312,6 +11737,9 @@
       <c r="F494" t="n">
         <v>0</v>
       </c>
+      <c r="G494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -10332,6 +11760,9 @@
       <c r="F495" t="n">
         <v>0</v>
       </c>
+      <c r="G495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -10352,6 +11783,9 @@
       <c r="F496" t="n">
         <v>0</v>
       </c>
+      <c r="G496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
@@ -10372,6 +11806,9 @@
       <c r="F497" t="n">
         <v>0</v>
       </c>
+      <c r="G497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
@@ -10392,6 +11829,9 @@
       <c r="F498" t="n">
         <v>0</v>
       </c>
+      <c r="G498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
@@ -10412,6 +11852,9 @@
       <c r="F499" t="n">
         <v>0</v>
       </c>
+      <c r="G499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
@@ -10432,6 +11875,7 @@
       <c r="F500" t="n">
         <v>0</v>
       </c>
+      <c r="G500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" t="n">
@@ -10452,6 +11896,9 @@
       <c r="F501" t="n">
         <v>0</v>
       </c>
+      <c r="G501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
@@ -10472,6 +11919,9 @@
       <c r="F502" t="n">
         <v>0</v>
       </c>
+      <c r="G502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
@@ -10492,6 +11942,9 @@
       <c r="F503" t="n">
         <v>0</v>
       </c>
+      <c r="G503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -10512,6 +11965,9 @@
       <c r="F504" t="n">
         <v>0</v>
       </c>
+      <c r="G504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -10532,6 +11988,9 @@
       <c r="F505" t="n">
         <v>0</v>
       </c>
+      <c r="G505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
@@ -10552,6 +12011,9 @@
       <c r="F506" t="n">
         <v>0</v>
       </c>
+      <c r="G506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -10572,6 +12034,9 @@
       <c r="F507" t="n">
         <v>0</v>
       </c>
+      <c r="G507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
@@ -10592,6 +12057,9 @@
       <c r="F508" t="n">
         <v>0</v>
       </c>
+      <c r="G508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
@@ -10612,6 +12080,9 @@
       <c r="F509" t="n">
         <v>0</v>
       </c>
+      <c r="G509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
@@ -10632,6 +12103,9 @@
       <c r="F510" t="n">
         <v>0</v>
       </c>
+      <c r="G510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
@@ -10652,6 +12126,9 @@
       <c r="F511" t="n">
         <v>0</v>
       </c>
+      <c r="G511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -10672,6 +12149,9 @@
       <c r="F512" t="n">
         <v>0</v>
       </c>
+      <c r="G512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
@@ -10692,6 +12172,9 @@
       <c r="F513" t="n">
         <v>0</v>
       </c>
+      <c r="G513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
@@ -10712,6 +12195,9 @@
       <c r="F514" t="n">
         <v>0</v>
       </c>
+      <c r="G514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
@@ -10732,6 +12218,9 @@
       <c r="F515" t="n">
         <v>0</v>
       </c>
+      <c r="G515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -10752,6 +12241,9 @@
       <c r="F516" t="n">
         <v>0</v>
       </c>
+      <c r="G516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
@@ -10772,6 +12264,9 @@
       <c r="F517" t="n">
         <v>0</v>
       </c>
+      <c r="G517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
@@ -10792,6 +12287,7 @@
       <c r="F518" t="n">
         <v>0</v>
       </c>
+      <c r="G518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" t="n">
@@ -10812,6 +12308,9 @@
       <c r="F519" t="n">
         <v>0</v>
       </c>
+      <c r="G519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
@@ -10832,6 +12331,9 @@
       <c r="F520" t="n">
         <v>0</v>
       </c>
+      <c r="G520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
@@ -10852,6 +12354,9 @@
       <c r="F521" t="n">
         <v>0</v>
       </c>
+      <c r="G521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
@@ -10872,6 +12377,9 @@
       <c r="F522" t="n">
         <v>0</v>
       </c>
+      <c r="G522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -10892,6 +12400,9 @@
       <c r="F523" t="n">
         <v>0</v>
       </c>
+      <c r="G523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -10912,6 +12423,9 @@
       <c r="F524" t="n">
         <v>0</v>
       </c>
+      <c r="G524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -10932,6 +12446,9 @@
       <c r="F525" t="n">
         <v>0</v>
       </c>
+      <c r="G525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
@@ -10952,6 +12469,9 @@
       <c r="F526" t="n">
         <v>0</v>
       </c>
+      <c r="G526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
@@ -10972,6 +12492,9 @@
       <c r="F527" t="n">
         <v>0</v>
       </c>
+      <c r="G527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
@@ -10992,6 +12515,9 @@
       <c r="F528" t="n">
         <v>0</v>
       </c>
+      <c r="G528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
@@ -11012,6 +12538,9 @@
       <c r="F529" t="n">
         <v>0</v>
       </c>
+      <c r="G529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
@@ -11032,6 +12561,9 @@
       <c r="F530" t="n">
         <v>0</v>
       </c>
+      <c r="G530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
@@ -11052,6 +12584,9 @@
       <c r="F531" t="n">
         <v>0</v>
       </c>
+      <c r="G531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
@@ -11072,6 +12607,9 @@
       <c r="F532" t="n">
         <v>0</v>
       </c>
+      <c r="G532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -11092,6 +12630,9 @@
       <c r="F533" t="n">
         <v>0</v>
       </c>
+      <c r="G533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
@@ -11112,6 +12653,9 @@
       <c r="F534" t="n">
         <v>0</v>
       </c>
+      <c r="G534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
@@ -11132,6 +12676,7 @@
       <c r="F535" t="n">
         <v>0</v>
       </c>
+      <c r="G535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" t="n">
@@ -11152,6 +12697,9 @@
       <c r="F536" t="n">
         <v>0</v>
       </c>
+      <c r="G536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
@@ -11172,6 +12720,9 @@
       <c r="F537" t="n">
         <v>0</v>
       </c>
+      <c r="G537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
@@ -11192,6 +12743,9 @@
       <c r="F538" t="n">
         <v>0</v>
       </c>
+      <c r="G538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
@@ -11212,6 +12766,9 @@
       <c r="F539" t="n">
         <v>0</v>
       </c>
+      <c r="G539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
@@ -11232,6 +12789,9 @@
       <c r="F540" t="n">
         <v>0</v>
       </c>
+      <c r="G540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
@@ -11252,6 +12812,9 @@
       <c r="F541" t="n">
         <v>0</v>
       </c>
+      <c r="G541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
@@ -11272,6 +12835,9 @@
       <c r="F542" t="n">
         <v>0</v>
       </c>
+      <c r="G542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
@@ -11292,6 +12858,9 @@
       <c r="F543" t="n">
         <v>0</v>
       </c>
+      <c r="G543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
@@ -11312,6 +12881,9 @@
       <c r="F544" t="n">
         <v>0</v>
       </c>
+      <c r="G544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
@@ -11332,6 +12904,9 @@
       <c r="F545" t="n">
         <v>0</v>
       </c>
+      <c r="G545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
@@ -11352,6 +12927,9 @@
       <c r="F546" t="n">
         <v>0</v>
       </c>
+      <c r="G546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
@@ -11372,6 +12950,9 @@
       <c r="F547" t="n">
         <v>0</v>
       </c>
+      <c r="G547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
@@ -11392,6 +12973,9 @@
       <c r="F548" t="n">
         <v>0</v>
       </c>
+      <c r="G548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
@@ -11412,6 +12996,9 @@
       <c r="F549" t="n">
         <v>0</v>
       </c>
+      <c r="G549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
@@ -11432,6 +13019,9 @@
       <c r="F550" t="n">
         <v>0</v>
       </c>
+      <c r="G550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -11452,6 +13042,9 @@
       <c r="F551" t="n">
         <v>0</v>
       </c>
+      <c r="G551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
@@ -11472,6 +13065,9 @@
       <c r="F552" t="n">
         <v>0</v>
       </c>
+      <c r="G552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
@@ -11492,6 +13088,9 @@
       <c r="F553" t="n">
         <v>0</v>
       </c>
+      <c r="G553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -11512,6 +13111,9 @@
       <c r="F554" t="n">
         <v>0</v>
       </c>
+      <c r="G554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -11532,6 +13134,7 @@
       <c r="F555" t="n">
         <v>0</v>
       </c>
+      <c r="G555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" t="n">
@@ -11552,6 +13155,9 @@
       <c r="F556" t="n">
         <v>0</v>
       </c>
+      <c r="G556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
@@ -11572,6 +13178,9 @@
       <c r="F557" t="n">
         <v>0</v>
       </c>
+      <c r="G557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
@@ -11592,6 +13201,9 @@
       <c r="F558" t="n">
         <v>0</v>
       </c>
+      <c r="G558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
@@ -11612,6 +13224,9 @@
       <c r="F559" t="n">
         <v>0</v>
       </c>
+      <c r="G559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
@@ -11632,6 +13247,9 @@
       <c r="F560" t="n">
         <v>0</v>
       </c>
+      <c r="G560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
@@ -11652,6 +13270,9 @@
       <c r="F561" t="n">
         <v>0</v>
       </c>
+      <c r="G561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
@@ -11672,6 +13293,9 @@
       <c r="F562" t="n">
         <v>0</v>
       </c>
+      <c r="G562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
@@ -11692,6 +13316,9 @@
       <c r="F563" t="n">
         <v>0</v>
       </c>
+      <c r="G563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
@@ -11712,6 +13339,9 @@
       <c r="F564" t="n">
         <v>0</v>
       </c>
+      <c r="G564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
@@ -11732,6 +13362,9 @@
       <c r="F565" t="n">
         <v>0</v>
       </c>
+      <c r="G565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
@@ -11752,6 +13385,9 @@
       <c r="F566" t="n">
         <v>0</v>
       </c>
+      <c r="G566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
@@ -11772,6 +13408,9 @@
       <c r="F567" t="n">
         <v>0</v>
       </c>
+      <c r="G567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -11792,6 +13431,9 @@
       <c r="F568" t="n">
         <v>0</v>
       </c>
+      <c r="G568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
@@ -11812,6 +13454,9 @@
       <c r="F569" t="n">
         <v>0</v>
       </c>
+      <c r="G569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
@@ -11832,6 +13477,9 @@
       <c r="F570" t="n">
         <v>0</v>
       </c>
+      <c r="G570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
@@ -11852,6 +13500,9 @@
       <c r="F571" t="n">
         <v>0</v>
       </c>
+      <c r="G571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
@@ -11872,6 +13523,9 @@
       <c r="F572" t="n">
         <v>0</v>
       </c>
+      <c r="G572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
@@ -11892,6 +13546,9 @@
       <c r="F573" t="n">
         <v>0</v>
       </c>
+      <c r="G573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
@@ -11912,6 +13569,7 @@
       <c r="F574" t="n">
         <v>0</v>
       </c>
+      <c r="G574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -11932,6 +13590,9 @@
       <c r="F575" t="n">
         <v>0</v>
       </c>
+      <c r="G575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -11952,6 +13613,9 @@
       <c r="F576" t="n">
         <v>0</v>
       </c>
+      <c r="G576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
@@ -11972,6 +13636,9 @@
       <c r="F577" t="n">
         <v>0</v>
       </c>
+      <c r="G577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
@@ -11992,6 +13659,9 @@
       <c r="F578" t="n">
         <v>0</v>
       </c>
+      <c r="G578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
@@ -12012,6 +13682,9 @@
       <c r="F579" t="n">
         <v>0</v>
       </c>
+      <c r="G579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
@@ -12032,6 +13705,9 @@
       <c r="F580" t="n">
         <v>0</v>
       </c>
+      <c r="G580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
@@ -12052,6 +13728,9 @@
       <c r="F581" t="n">
         <v>0</v>
       </c>
+      <c r="G581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -12072,6 +13751,9 @@
       <c r="F582" t="n">
         <v>0</v>
       </c>
+      <c r="G582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
@@ -12092,6 +13774,9 @@
       <c r="F583" t="n">
         <v>0</v>
       </c>
+      <c r="G583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
@@ -12112,6 +13797,9 @@
       <c r="F584" t="n">
         <v>0</v>
       </c>
+      <c r="G584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -12132,6 +13820,9 @@
       <c r="F585" t="n">
         <v>0</v>
       </c>
+      <c r="G585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -12152,6 +13843,9 @@
       <c r="F586" t="n">
         <v>0</v>
       </c>
+      <c r="G586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -12172,6 +13866,7 @@
       <c r="F587" t="n">
         <v>0</v>
       </c>
+      <c r="G587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" t="n">
@@ -12192,6 +13887,9 @@
       <c r="F588" t="n">
         <v>0</v>
       </c>
+      <c r="G588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
@@ -12212,6 +13910,9 @@
       <c r="F589" t="n">
         <v>0</v>
       </c>
+      <c r="G589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
@@ -12232,6 +13933,9 @@
       <c r="F590" t="n">
         <v>0</v>
       </c>
+      <c r="G590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -12252,6 +13956,9 @@
       <c r="F591" t="n">
         <v>0</v>
       </c>
+      <c r="G591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
@@ -12272,6 +13979,9 @@
       <c r="F592" t="n">
         <v>0</v>
       </c>
+      <c r="G592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
@@ -12292,6 +14002,9 @@
       <c r="F593" t="n">
         <v>0</v>
       </c>
+      <c r="G593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
@@ -12312,6 +14025,9 @@
       <c r="F594" t="n">
         <v>0</v>
       </c>
+      <c r="G594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
@@ -12332,6 +14048,9 @@
       <c r="F595" t="n">
         <v>0</v>
       </c>
+      <c r="G595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
@@ -12352,6 +14071,9 @@
       <c r="F596" t="n">
         <v>0</v>
       </c>
+      <c r="G596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
@@ -12372,6 +14094,9 @@
       <c r="F597" t="n">
         <v>0</v>
       </c>
+      <c r="G597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
@@ -12392,6 +14117,9 @@
       <c r="F598" t="n">
         <v>0</v>
       </c>
+      <c r="G598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
@@ -12412,6 +14140,9 @@
       <c r="F599" t="n">
         <v>0</v>
       </c>
+      <c r="G599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
@@ -12432,6 +14163,9 @@
       <c r="F600" t="n">
         <v>0</v>
       </c>
+      <c r="G600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
@@ -12452,6 +14186,9 @@
       <c r="F601" t="n">
         <v>0</v>
       </c>
+      <c r="G601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
@@ -12472,6 +14209,9 @@
       <c r="F602" t="n">
         <v>0</v>
       </c>
+      <c r="G602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
@@ -12492,6 +14232,9 @@
       <c r="F603" t="n">
         <v>0</v>
       </c>
+      <c r="G603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
@@ -12512,6 +14255,9 @@
       <c r="F604" t="n">
         <v>0</v>
       </c>
+      <c r="G604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
@@ -12532,6 +14278,9 @@
       <c r="F605" t="n">
         <v>0</v>
       </c>
+      <c r="G605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -12552,6 +14301,9 @@
       <c r="F606" t="n">
         <v>0</v>
       </c>
+      <c r="G606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
@@ -12572,6 +14324,9 @@
       <c r="F607" t="n">
         <v>0</v>
       </c>
+      <c r="G607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
@@ -12592,6 +14347,9 @@
       <c r="F608" t="n">
         <v>0</v>
       </c>
+      <c r="G608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
@@ -12612,6 +14370,9 @@
       <c r="F609" t="n">
         <v>0</v>
       </c>
+      <c r="G609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
@@ -12632,6 +14393,9 @@
       <c r="F610" t="n">
         <v>0</v>
       </c>
+      <c r="G610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
@@ -12652,6 +14416,9 @@
       <c r="F611" t="n">
         <v>0</v>
       </c>
+      <c r="G611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
@@ -12672,6 +14439,9 @@
       <c r="F612" t="n">
         <v>0</v>
       </c>
+      <c r="G612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
@@ -12692,6 +14462,9 @@
       <c r="F613" t="n">
         <v>0</v>
       </c>
+      <c r="G613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
@@ -12712,6 +14485,9 @@
       <c r="F614" t="n">
         <v>0</v>
       </c>
+      <c r="G614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
@@ -12732,6 +14508,9 @@
       <c r="F615" t="n">
         <v>0</v>
       </c>
+      <c r="G615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -12752,6 +14531,9 @@
       <c r="F616" t="n">
         <v>0</v>
       </c>
+      <c r="G616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
@@ -12772,6 +14554,9 @@
       <c r="F617" t="n">
         <v>0</v>
       </c>
+      <c r="G617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -12792,6 +14577,9 @@
       <c r="F618" t="n">
         <v>0</v>
       </c>
+      <c r="G618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
@@ -12812,6 +14600,9 @@
       <c r="F619" t="n">
         <v>0</v>
       </c>
+      <c r="G619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
@@ -12832,6 +14623,9 @@
       <c r="F620" t="n">
         <v>0</v>
       </c>
+      <c r="G620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
@@ -12852,6 +14646,9 @@
       <c r="F621" t="n">
         <v>0</v>
       </c>
+      <c r="G621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -12872,6 +14669,9 @@
       <c r="F622" t="n">
         <v>0</v>
       </c>
+      <c r="G622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
@@ -12892,6 +14692,9 @@
       <c r="F623" t="n">
         <v>0</v>
       </c>
+      <c r="G623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
@@ -12912,6 +14715,9 @@
       <c r="F624" t="n">
         <v>0</v>
       </c>
+      <c r="G624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
@@ -12932,6 +14738,9 @@
       <c r="F625" t="n">
         <v>0</v>
       </c>
+      <c r="G625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
@@ -12952,6 +14761,9 @@
       <c r="F626" t="n">
         <v>0</v>
       </c>
+      <c r="G626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
@@ -12972,6 +14784,9 @@
       <c r="F627" t="n">
         <v>0</v>
       </c>
+      <c r="G627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
@@ -12992,6 +14807,9 @@
       <c r="F628" t="n">
         <v>0</v>
       </c>
+      <c r="G628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
@@ -13012,6 +14830,7 @@
       <c r="F629" t="n">
         <v>0</v>
       </c>
+      <c r="G629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" t="n">
@@ -13032,6 +14851,9 @@
       <c r="F630" t="n">
         <v>0</v>
       </c>
+      <c r="G630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
@@ -13052,6 +14874,9 @@
       <c r="F631" t="n">
         <v>0</v>
       </c>
+      <c r="G631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
@@ -13072,6 +14897,9 @@
       <c r="F632" t="n">
         <v>0</v>
       </c>
+      <c r="G632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
@@ -13092,6 +14920,9 @@
       <c r="F633" t="n">
         <v>0</v>
       </c>
+      <c r="G633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
@@ -13112,6 +14943,9 @@
       <c r="F634" t="n">
         <v>0</v>
       </c>
+      <c r="G634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
@@ -13132,6 +14966,9 @@
       <c r="F635" t="n">
         <v>0</v>
       </c>
+      <c r="G635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
@@ -13152,6 +14989,9 @@
       <c r="F636" t="n">
         <v>0</v>
       </c>
+      <c r="G636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
@@ -13172,6 +15012,9 @@
       <c r="F637" t="n">
         <v>0</v>
       </c>
+      <c r="G637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
@@ -13192,6 +15035,9 @@
       <c r="F638" t="n">
         <v>0</v>
       </c>
+      <c r="G638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
@@ -13212,6 +15058,9 @@
       <c r="F639" t="n">
         <v>0</v>
       </c>
+      <c r="G639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
@@ -13232,6 +15081,9 @@
       <c r="F640" t="n">
         <v>0</v>
       </c>
+      <c r="G640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
@@ -13252,6 +15104,9 @@
       <c r="F641" t="n">
         <v>0</v>
       </c>
+      <c r="G641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
@@ -13272,6 +15127,9 @@
       <c r="F642" t="n">
         <v>0</v>
       </c>
+      <c r="G642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
@@ -13292,6 +15150,9 @@
       <c r="F643" t="n">
         <v>0</v>
       </c>
+      <c r="G643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
@@ -13312,6 +15173,9 @@
       <c r="F644" t="n">
         <v>0</v>
       </c>
+      <c r="G644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
@@ -13332,6 +15196,9 @@
       <c r="F645" t="n">
         <v>0</v>
       </c>
+      <c r="G645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
@@ -13352,6 +15219,9 @@
       <c r="F646" t="n">
         <v>0</v>
       </c>
+      <c r="G646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
@@ -13372,6 +15242,9 @@
       <c r="F647" t="n">
         <v>0</v>
       </c>
+      <c r="G647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
@@ -13392,6 +15265,9 @@
       <c r="F648" t="n">
         <v>0</v>
       </c>
+      <c r="G648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
@@ -13412,6 +15288,9 @@
       <c r="F649" t="n">
         <v>0</v>
       </c>
+      <c r="G649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
@@ -13432,6 +15311,9 @@
       <c r="F650" t="n">
         <v>0</v>
       </c>
+      <c r="G650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
@@ -13452,6 +15334,9 @@
       <c r="F651" t="n">
         <v>0</v>
       </c>
+      <c r="G651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
@@ -13472,6 +15357,9 @@
       <c r="F652" t="n">
         <v>0</v>
       </c>
+      <c r="G652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
@@ -13492,6 +15380,9 @@
       <c r="F653" t="n">
         <v>0</v>
       </c>
+      <c r="G653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
@@ -13512,6 +15403,9 @@
       <c r="F654" t="n">
         <v>0</v>
       </c>
+      <c r="G654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
@@ -13532,6 +15426,9 @@
       <c r="F655" t="n">
         <v>0</v>
       </c>
+      <c r="G655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
@@ -13552,6 +15449,9 @@
       <c r="F656" t="n">
         <v>0</v>
       </c>
+      <c r="G656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
@@ -13572,6 +15472,9 @@
       <c r="F657" t="n">
         <v>0</v>
       </c>
+      <c r="G657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
@@ -13592,6 +15495,9 @@
       <c r="F658" t="n">
         <v>0</v>
       </c>
+      <c r="G658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
@@ -13612,6 +15518,9 @@
       <c r="F659" t="n">
         <v>0</v>
       </c>
+      <c r="G659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
@@ -13632,6 +15541,9 @@
       <c r="F660" t="n">
         <v>0</v>
       </c>
+      <c r="G660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
@@ -13652,6 +15564,9 @@
       <c r="F661" t="n">
         <v>0</v>
       </c>
+      <c r="G661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
@@ -13672,6 +15587,7 @@
       <c r="F662" t="n">
         <v>0</v>
       </c>
+      <c r="G662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" t="n">
@@ -13692,6 +15608,9 @@
       <c r="F663" t="n">
         <v>0</v>
       </c>
+      <c r="G663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
@@ -13712,6 +15631,9 @@
       <c r="F664" t="n">
         <v>0</v>
       </c>
+      <c r="G664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
@@ -13732,6 +15654,9 @@
       <c r="F665" t="n">
         <v>0</v>
       </c>
+      <c r="G665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
@@ -13752,6 +15677,9 @@
       <c r="F666" t="n">
         <v>0</v>
       </c>
+      <c r="G666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
@@ -13772,6 +15700,7 @@
       <c r="F667" t="n">
         <v>0</v>
       </c>
+      <c r="G667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" t="n">
@@ -13792,6 +15721,9 @@
       <c r="F668" t="n">
         <v>0</v>
       </c>
+      <c r="G668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
@@ -13812,6 +15744,9 @@
       <c r="F669" t="n">
         <v>0</v>
       </c>
+      <c r="G669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
@@ -13832,6 +15767,9 @@
       <c r="F670" t="n">
         <v>0</v>
       </c>
+      <c r="G670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
@@ -13852,6 +15790,9 @@
       <c r="F671" t="n">
         <v>0</v>
       </c>
+      <c r="G671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
@@ -13872,6 +15813,9 @@
       <c r="F672" t="n">
         <v>0</v>
       </c>
+      <c r="G672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
@@ -13892,6 +15836,9 @@
       <c r="F673" t="n">
         <v>0</v>
       </c>
+      <c r="G673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
@@ -13912,6 +15859,9 @@
       <c r="F674" t="n">
         <v>0</v>
       </c>
+      <c r="G674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
@@ -13932,6 +15882,9 @@
       <c r="F675" t="n">
         <v>0</v>
       </c>
+      <c r="G675" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
@@ -13952,6 +15905,9 @@
       <c r="F676" t="n">
         <v>0</v>
       </c>
+      <c r="G676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
@@ -13972,6 +15928,9 @@
       <c r="F677" t="n">
         <v>0</v>
       </c>
+      <c r="G677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
@@ -13992,6 +15951,9 @@
       <c r="F678" t="n">
         <v>0</v>
       </c>
+      <c r="G678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
@@ -14012,6 +15974,9 @@
       <c r="F679" t="n">
         <v>0</v>
       </c>
+      <c r="G679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
@@ -14032,6 +15997,9 @@
       <c r="F680" t="n">
         <v>0</v>
       </c>
+      <c r="G680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
@@ -14052,6 +16020,9 @@
       <c r="F681" t="n">
         <v>0</v>
       </c>
+      <c r="G681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
@@ -14072,6 +16043,9 @@
       <c r="F682" t="n">
         <v>0</v>
       </c>
+      <c r="G682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
@@ -14092,6 +16066,9 @@
       <c r="F683" t="n">
         <v>0</v>
       </c>
+      <c r="G683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
@@ -14112,6 +16089,9 @@
       <c r="F684" t="n">
         <v>0</v>
       </c>
+      <c r="G684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
@@ -14132,6 +16112,9 @@
       <c r="F685" t="n">
         <v>0</v>
       </c>
+      <c r="G685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
@@ -14152,6 +16135,9 @@
       <c r="F686" t="n">
         <v>0</v>
       </c>
+      <c r="G686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
@@ -14172,6 +16158,9 @@
       <c r="F687" t="n">
         <v>0</v>
       </c>
+      <c r="G687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
@@ -14192,6 +16181,9 @@
       <c r="F688" t="n">
         <v>0</v>
       </c>
+      <c r="G688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
@@ -14212,6 +16204,9 @@
       <c r="F689" t="n">
         <v>0</v>
       </c>
+      <c r="G689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
@@ -14232,6 +16227,7 @@
       <c r="F690" t="n">
         <v>0</v>
       </c>
+      <c r="G690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" t="n">
@@ -14252,6 +16248,9 @@
       <c r="F691" t="n">
         <v>0</v>
       </c>
+      <c r="G691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
@@ -14272,6 +16271,9 @@
       <c r="F692" t="n">
         <v>0</v>
       </c>
+      <c r="G692" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
@@ -14292,6 +16294,9 @@
       <c r="F693" t="n">
         <v>0</v>
       </c>
+      <c r="G693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
@@ -14312,6 +16317,9 @@
       <c r="F694" t="n">
         <v>0</v>
       </c>
+      <c r="G694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
@@ -14332,6 +16340,9 @@
       <c r="F695" t="n">
         <v>0</v>
       </c>
+      <c r="G695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
@@ -14352,6 +16363,9 @@
       <c r="F696" t="n">
         <v>0</v>
       </c>
+      <c r="G696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
@@ -14372,6 +16386,9 @@
       <c r="F697" t="n">
         <v>0</v>
       </c>
+      <c r="G697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
@@ -14392,6 +16409,9 @@
       <c r="F698" t="n">
         <v>0</v>
       </c>
+      <c r="G698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
@@ -14412,6 +16432,9 @@
       <c r="F699" t="n">
         <v>0</v>
       </c>
+      <c r="G699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
@@ -14432,6 +16455,9 @@
       <c r="F700" t="n">
         <v>0</v>
       </c>
+      <c r="G700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
@@ -14452,6 +16478,9 @@
       <c r="F701" t="n">
         <v>0</v>
       </c>
+      <c r="G701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
@@ -14472,6 +16501,9 @@
       <c r="F702" t="n">
         <v>0</v>
       </c>
+      <c r="G702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
@@ -14492,6 +16524,9 @@
       <c r="F703" t="n">
         <v>0</v>
       </c>
+      <c r="G703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
@@ -14512,6 +16547,9 @@
       <c r="F704" t="n">
         <v>0</v>
       </c>
+      <c r="G704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
@@ -14532,6 +16570,9 @@
       <c r="F705" t="n">
         <v>0</v>
       </c>
+      <c r="G705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
@@ -14552,6 +16593,9 @@
       <c r="F706" t="n">
         <v>0</v>
       </c>
+      <c r="G706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
@@ -14572,6 +16616,9 @@
       <c r="F707" t="n">
         <v>0</v>
       </c>
+      <c r="G707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
@@ -14592,6 +16639,7 @@
       <c r="F708" t="n">
         <v>0</v>
       </c>
+      <c r="G708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" t="n">
@@ -14612,6 +16660,9 @@
       <c r="F709" t="n">
         <v>0</v>
       </c>
+      <c r="G709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
@@ -14632,6 +16683,9 @@
       <c r="F710" t="n">
         <v>0</v>
       </c>
+      <c r="G710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
@@ -14652,6 +16706,9 @@
       <c r="F711" t="n">
         <v>0</v>
       </c>
+      <c r="G711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
@@ -14672,6 +16729,9 @@
       <c r="F712" t="n">
         <v>0</v>
       </c>
+      <c r="G712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
@@ -14692,6 +16752,9 @@
       <c r="F713" t="n">
         <v>0</v>
       </c>
+      <c r="G713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
@@ -14712,6 +16775,9 @@
       <c r="F714" t="n">
         <v>0</v>
       </c>
+      <c r="G714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
@@ -14732,6 +16798,9 @@
       <c r="F715" t="n">
         <v>0</v>
       </c>
+      <c r="G715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
@@ -14752,6 +16821,9 @@
       <c r="F716" t="n">
         <v>0</v>
       </c>
+      <c r="G716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
@@ -14772,6 +16844,9 @@
       <c r="F717" t="n">
         <v>0</v>
       </c>
+      <c r="G717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
@@ -14792,6 +16867,9 @@
       <c r="F718" t="n">
         <v>0</v>
       </c>
+      <c r="G718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
@@ -14812,6 +16890,9 @@
       <c r="F719" t="n">
         <v>0</v>
       </c>
+      <c r="G719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
@@ -14832,6 +16913,9 @@
       <c r="F720" t="n">
         <v>0</v>
       </c>
+      <c r="G720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
@@ -14852,6 +16936,9 @@
       <c r="F721" t="n">
         <v>0</v>
       </c>
+      <c r="G721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
@@ -14872,6 +16959,9 @@
       <c r="F722" t="n">
         <v>0</v>
       </c>
+      <c r="G722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
@@ -14892,6 +16982,9 @@
       <c r="F723" t="n">
         <v>0</v>
       </c>
+      <c r="G723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
@@ -14912,6 +17005,9 @@
       <c r="F724" t="n">
         <v>0</v>
       </c>
+      <c r="G724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
@@ -14932,6 +17028,9 @@
       <c r="F725" t="n">
         <v>0</v>
       </c>
+      <c r="G725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
@@ -14952,6 +17051,9 @@
       <c r="F726" t="n">
         <v>0</v>
       </c>
+      <c r="G726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
@@ -14972,6 +17074,9 @@
       <c r="F727" t="n">
         <v>0</v>
       </c>
+      <c r="G727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
@@ -14992,6 +17097,9 @@
       <c r="F728" t="n">
         <v>0</v>
       </c>
+      <c r="G728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
@@ -15012,6 +17120,9 @@
       <c r="F729" t="n">
         <v>0</v>
       </c>
+      <c r="G729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
@@ -15032,6 +17143,9 @@
       <c r="F730" t="n">
         <v>0</v>
       </c>
+      <c r="G730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
@@ -15050,6 +17164,9 @@
         <v>0</v>
       </c>
       <c r="F731" t="n">
+        <v>0</v>
+      </c>
+      <c r="G731" t="n">
         <v>0</v>
       </c>
     </row>
